--- a/biology/Botanique/Allied_Domecq/Allied_Domecq.xlsx
+++ b/biology/Botanique/Allied_Domecq/Allied_Domecq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Allied Domecq était un groupe anglais spécialisé dans les spiritueux, mais également présent dans la restauration rapide. Fondé en 1994, il a été racheté par le français Pernod-Ricard et par l'américain Fortune Brands, qui se sont partagé ses activités en 2005[1] pour un montant total de 10,7 milliards d'euros. Ce rachat a notamment permis à Pernod-Ricard de se classer deuxième mondial derrière l'entreprise anglaise Diaego, avec une augmentation de son chiffre d'affaires de +54 %[2].
+Allied Domecq était un groupe anglais spécialisé dans les spiritueux, mais également présent dans la restauration rapide. Fondé en 1994, il a été racheté par le français Pernod-Ricard et par l'américain Fortune Brands, qui se sont partagé ses activités en 2005 pour un montant total de 10,7 milliards d'euros. Ce rachat a notamment permis à Pernod-Ricard de se classer deuxième mondial derrière l'entreprise anglaise Diaego, avec une augmentation de son chiffre d'affaires de +54 %.
 </t>
         </is>
       </c>
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Allied Domecq a été créée en 1994 par le rapprochement du groupe anglais Allied Lyons et de l'espagnol Domecq.
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allied Domecq a été créée en 1994 par le rapprochement du groupe anglais Allied Lyons et de l'espagnol Domecq.
 Allied Lyons était elle-même le résultat de la fusion entre Allied Breweries et le groupe J. Lyons and Co..
-Développement
-En 2002, Allied Domecq reprend auprès de Diageo la marque Malibu[3].
-OPA et disparition
-Numéro deux mondial des spiritueux au moment de son rachat, Allied Domecq a été approché amicalement par Pernod Ricard, alors numéro trois du secteur. La cible étant trop grosse, et également pour des raisons de concurrence, le groupe français a cherché un groupe partenaire, épousant en cela le même schéma que lors du rachat de Seagram en 2004 (alors Pernod-Ricard avec Diageo).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, Allied Domecq reprend auprès de Diageo la marque Malibu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>OPA et disparition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Numéro deux mondial des spiritueux au moment de son rachat, Allied Domecq a été approché amicalement par Pernod Ricard, alors numéro trois du secteur. La cible étant trop grosse, et également pour des raisons de concurrence, le groupe français a cherché un groupe partenaire, épousant en cela le même schéma que lors du rachat de Seagram en 2004 (alors Pernod-Ricard avec Diageo).
 Le même Diageo s'étant un temps intéressé à Allied Domecq, un accord a été trouvé avec Pernod-Ricard : Diageo renonçait au groupe en échange de quelques rétrocessions, à savoir le whiskey irlandais Bushmills et les vins Montana. Finalement Diageo renoncera à ces derniers.  
 D'autres groupes, mais peut-être trop petits et pris de court, n'ont finalement pas surenchéri sur l'offre amicale. C'est le cas de Constellation Brands.
 Allied Domecq possédait également des chaînes de restauration rapide de renommée mondiale et une participation dans Britvic (en), une société britannique de fabrication de boissons gazeuses non-alcoolisées. Ces dernières activités hors alcool seront rapidement vendues par le consortium, ne faisant pas partie du cœur de métier des acquéreurs. 
@@ -529,40 +616,77 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Allied_Domecq</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Allied_Domecq</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Portefeuille de marque au moment de l'OPA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Allied Domecq était composé de marques mondiales et de nombreuses marques locales. 
-Les activités de restauration rapide comportaient les chaînes suivantes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allied Domecq était composé de marques mondiales et de nombreuses marques locales. 
+Les activités de restauration rapide comportaient les chaînes suivantes :
 Dunkin Donuts, spécialisée dans les donuts
 Baskin-Robbins, spécialisée dans les glaces
 Togo's, spécialisée dans les sandwichs.
 Le consortium a ensuite réparti les marques comme suit :
-Marques acquises par Pernod-Ricard
-Beefeater, gin
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Portefeuille de marque au moment de l'OPA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Marques acquises par Pernod-Ricard</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Beefeater, gin
 Ballantine's, whisky
 Teachers, whisky
 Laphroaig, whisky pur malt d'Islay
@@ -578,9 +702,43 @@
 Stolichnaya, vodka
 Tia Maria, liqueur
 Cockburn's, porto
-Harveys Bristol Cream, sherry
-Marques acquises par Fortune Brands
-Sauza tequila
+Harveys Bristol Cream, sherry</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allied_Domecq</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Portefeuille de marque au moment de l'OPA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Marques acquises par Fortune Brands</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sauza tequila
 Courvoisier cognac
 Canadian Club whisky
 Clos du Bois and other Sonoma and Napa wine brands
